--- a/data/adfg/processed/ADFG_species_key.xlsx
+++ b/data/adfg/processed/ADFG_species_key.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_landings_data/data/adfg/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8195DB7-7524-6842-8E05-4B52550283E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBB910D-BA28-CD46-9157-81B3CCD5EA7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21980" yWindow="5020" windowWidth="33360" windowHeight="22640" xr2:uid="{0F75CB4C-050E-554B-8CA3-F1FB781CA08D}"/>
+    <workbookView xWindow="15360" yWindow="680" windowWidth="35840" windowHeight="20200" xr2:uid="{0F75CB4C-050E-554B-8CA3-F1FB781CA08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$27</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
   <si>
     <t>Whitefish</t>
   </si>
@@ -129,9 +132,6 @@
     <t>Stenodus leucichthys</t>
   </si>
   <si>
-    <t>Ophiodonelongatus</t>
-  </si>
-  <si>
     <t>Sockeye salmon</t>
   </si>
   <si>
@@ -187,16 +187,65 @@
   </si>
   <si>
     <t>Other fish</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>comm_name_orig</t>
+  </si>
+  <si>
+    <t>Chinook salmon</t>
+  </si>
+  <si>
+    <t>Coho salmon</t>
+  </si>
+  <si>
+    <t>Coho/Chinook salmon (landlocked)</t>
+  </si>
+  <si>
+    <t>Sablefish</t>
+  </si>
+  <si>
+    <t>taxa_catg</t>
+  </si>
+  <si>
+    <t>Sharks and rays</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Flatfish</t>
+  </si>
+  <si>
+    <t>Roundfish</t>
+  </si>
+  <si>
+    <t>Ophiodon elongatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,8 +271,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,311 +588,561 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9FE29E-1A62-2342-BC5F-028CA6F3E490}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F27" xr:uid="{9B9FE29E-1A62-2342-BC5F-028CA6F3E490}">
+    <sortState ref="A2:F27">
+      <sortCondition ref="A1:A27"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>